--- a/biology/Zoologie/Corail_mou/Corail_mou.xlsx
+++ b/biology/Zoologie/Corail_mou/Corail_mou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un corail mou, terme ne se rapportant pas directement à la classification scientifique des espèces, désigne tout corail ne produisant pas de squelette rigide et ne participant donc pas à la construction des récifs corallien, bien qu'il en fasse partie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un corail mou, terme ne se rapportant pas directement à la classification scientifique des espèces, désigne tout corail ne produisant pas de squelette rigide et ne participant donc pas à la construction des récifs corallien, bien qu'il en fasse partie.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Classification scientifique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'existe pas aujourd'hui de consensus sur un rapprochement du terme avec une classification scientifique des espèces.
-Par exemple, la NOAA rapproche la notion de corail mou à l'ordre des alcyonacea[1], excluant alors de la cette notion des animaux répondant pourtant strictement à leur définition de corail mou; Par exemple, les zoanthus répondent à la définition de corail mou de la NOAA, mais n'appartiennent pas à l'ordre des alcyonacea.
+Par exemple, la NOAA rapproche la notion de corail mou à l'ordre des alcyonacea, excluant alors de la cette notion des animaux répondant pourtant strictement à leur définition de corail mou; Par exemple, les zoanthus répondent à la définition de corail mou de la NOAA, mais n'appartiennent pas à l'ordre des alcyonacea.
 Dans la littérature aquariophile, les coraux mous appartiennent à de nombreuses espèces incluses dans les sous-classes octocorallia et hexacorallia.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans son sens premier, un corail mou est un corail ahermatypique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son sens premier, un corail mou est un corail ahermatypique.
 </t>
         </is>
       </c>
